--- a/AfDD_DDAf_2021_TabIndsCodes.xlsx
+++ b/AfDD_DDAf_2021_TabIndsCodes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2021_TabIndsCodes" sheetId="1" r:id="rId1"/>

--- a/AfDD_DDAf_2021_TabIndsCodes.xlsx
+++ b/AfDD_DDAf_2021_TabIndsCodes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9740"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2021_TabIndsCodes" sheetId="1" r:id="rId1"/>
@@ -2031,8 +2031,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/AfDD_DDAf_2021_TabIndsCodes.xlsx
+++ b/AfDD_DDAf_2021_TabIndsCodes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2021_TabIndsCodes" sheetId="1" r:id="rId1"/>
@@ -2031,9 +2031,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
